--- a/data/income_statement/2digits/total/49_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/49_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>49-Land transport and transport via pipelines</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>49-Land transport and transport via pipelines</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>49878687.98255</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>56161307.9213</v>
+        <v>56163941.46585</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>74215423.26402001</v>
+        <v>74224495.01641999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>91018950.94832</v>
+        <v>91048757.07334998</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>93153953.31764999</v>
+        <v>93405944.86904001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>106302149.56906</v>
+        <v>106926455.36104</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>111939411.58331</v>
+        <v>114114183.88943</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>113396795.48377</v>
+        <v>113724023.65571</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>140895178.2985</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>173295054.41143</v>
+        <v>170434751.92945</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>199024465.51671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>201026391.57296</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>220883637.101</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>40718500.22927</v>
+        <v>40718500.22926999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>44257421.68360001</v>
+        <v>44259991.17815</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>59622330.73415001</v>
+        <v>59631180.35696001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>74841633.10375999</v>
+        <v>74869745.79718998</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>75069337.17896001</v>
+        <v>75298668.05378</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>85915070.30201001</v>
+        <v>86409139.42279001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>90692441.47347</v>
+        <v>92303262.46458</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>91033520.38041</v>
+        <v>91179546.52921999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>110456662.18604</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>133208791.3247</v>
+        <v>133447237.43113</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>155172967.41604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>156763355.81405</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>168834033.372</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>7628715.247219999</v>
+        <v>7628715.24722</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>9986381.46652</v>
@@ -1037,73 +953,83 @@
         <v>12273847.68755</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>13898287.54607</v>
+        <v>13898405.75761</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>15486473.20915</v>
+        <v>15503807.70087</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>18227711.8132</v>
+        <v>18347929.56665</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>18823263.61965</v>
+        <v>19355980.76154</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>19836693.87527</v>
+        <v>20005308.5067</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>27257039.48176</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>36475521.62854</v>
+        <v>33369093.37895</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>39471446.67638001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>39848757.04441</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>47403955.066</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1531472.50606</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1917504.77118</v>
+        <v>1917568.82118</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2319244.84232</v>
+        <v>2319466.97191</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2279030.29849</v>
+        <v>2280605.51855</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2598142.92954</v>
+        <v>2603469.11439</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2159367.45385</v>
+        <v>2169386.3716</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2423706.49019</v>
+        <v>2454940.66331</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2526581.22809</v>
+        <v>2539168.61979</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>3181476.6307</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3610741.458190001</v>
+        <v>3618421.11937</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>4380051.42429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4414278.7145</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>4645648.663</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>132198.6943</v>
@@ -1118,37 +1044,42 @@
         <v>189333.77447</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>193119.57716</v>
+        <v>193126.77192</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>538645.1099800001</v>
+        <v>539682.06628</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>484627.72495</v>
+        <v>495523.91201</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>641324.64492</v>
+        <v>644967.05456</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2221151.08355</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4044657.83568</v>
+        <v>897518.0374800001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1089645.44911</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1087632.93924</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2237968.188</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>106669.35734</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>92840.40592999999</v>
+        <v>92840.40593000001</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>134776.79832</v>
@@ -1157,31 +1088,36 @@
         <v>154798.89837</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>151602.1263600001</v>
+        <v>151608.37657</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>459642.49898</v>
+        <v>460495.56154</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>407079.83714</v>
+        <v>415301.38433</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>472411.6142000001</v>
+        <v>473870.77747</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>2115002.6226</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3881614.9322</v>
+        <v>734472.04038</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>904778.13549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>902638.6935999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1756082.653</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>13930.01664</v>
@@ -1196,31 +1132,36 @@
         <v>15737.12213</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>19511.65071</v>
+        <v>19512.59526</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>29097.51434</v>
+        <v>29281.40808</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>39137.06798000001</v>
+        <v>39462.82063</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>54096.08029</v>
+        <v>55720.22452</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>63204.87773000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>59905.59482000001</v>
+        <v>59905.59482</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>72904.13559000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>72781.74959000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>132502.378</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>11599.32032</v>
@@ -1241,103 +1182,118 @@
         <v>49905.09666</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>38410.81983</v>
+        <v>40759.70705</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>114816.95043</v>
+        <v>115376.05257</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>42943.58322</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>103137.30866</v>
+        <v>103140.40228</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>111963.17803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>112212.49605</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>349383.157</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>49746489.28825</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>56036728.43821</v>
+        <v>56039361.98275999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>74044147.72337002</v>
+        <v>74053219.47576998</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>90829617.17385</v>
+        <v>90859423.29888003</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>92960833.74049</v>
+        <v>93212818.09712</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>105763504.45908</v>
+        <v>106386773.29476</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>111454783.85836</v>
+        <v>113618659.97742</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>112755470.83885</v>
+        <v>113079056.60115</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>138674027.21495</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>169250396.57575</v>
+        <v>169537233.89197</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>197934820.0676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>199938758.63372</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>218645668.913</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>42899700.74483</v>
+        <v>42899700.74483001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>51932924.79320999</v>
+        <v>51935490.14784999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>71125187.11168</v>
+        <v>71133447.74336</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>86825454.25781</v>
+        <v>86852631.59331</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>87225563.03453</v>
+        <v>87465456.36239998</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>101635172.49991</v>
+        <v>102224320.98829</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>102527970.08406</v>
+        <v>104288705.4061</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>97744191.94411001</v>
+        <v>98026142.98725998</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>130625449.20555</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>165535331.74222</v>
+        <v>165781896.56213</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>191560560.59714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>193317536.00651</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>200947656.764</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>430815.77157</v>
@@ -1346,115 +1302,130 @@
         <v>327228.94488</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>634157.97485</v>
+        <v>634564.6886500001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>431520.48512</v>
+        <v>432885.72633</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>990568.46455</v>
+        <v>993987.2624100001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>527185.23771</v>
+        <v>528323.7430799999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1198985.26199</v>
+        <v>1206982.35629</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>634198.58814</v>
+        <v>640304.6473899999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1245630.79252</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1211394.39444</v>
+        <v>1212353.33012</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1469740.39306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1498649.28903</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1300784.723</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>18357195.62777</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>21734410.83135</v>
+        <v>21735235.51717</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>32867648.0233</v>
+        <v>32868739.88534</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>38973737.31280001</v>
+        <v>38974749.671</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>37301939.94201</v>
+        <v>37322371.50643001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>45259733.87569001</v>
+        <v>45415938.76284</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>41375097.22963</v>
+        <v>41509399.29373</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>30797005.27459</v>
+        <v>30806581.69047</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>48027519.31775</v>
+        <v>48027519.31774999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>68874646.01916</v>
+        <v>68914337.47948</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>82667882.12906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>83225026.90287</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>80961287.478</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>24009235.45111</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>29704471.17501</v>
+        <v>29706211.84382999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>37500160.15213</v>
+        <v>37506922.20797</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>47269951.36304001</v>
+        <v>47294731.43810999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>48781407.62868001</v>
+        <v>48997450.08195999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>55410753.84477</v>
+        <v>55839517.01083</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>59441883.53667</v>
+        <v>61036195.17676999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>65702337.22166</v>
+        <v>65968412.45217001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>80442754.40092</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>94437189.61263001</v>
+        <v>94640397.30498001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>106219250.40368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>107377207.53016</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>116858766.594</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>102453.89438</v>
@@ -1466,124 +1437,139 @@
         <v>123220.9614</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>150245.09685</v>
+        <v>150264.75787</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>151646.99929</v>
+        <v>151647.5116</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>437499.54174</v>
+        <v>440541.47154</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>512004.05577</v>
+        <v>536128.5793100001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>610650.8597200001</v>
+        <v>610844.19723</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>909544.6943599998</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1012101.71599</v>
+        <v>1014808.44755</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1203687.67134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1216652.28445</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1826817.969</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>6846788.54342</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4103803.645</v>
+        <v>4103871.83491</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2918960.61169</v>
+        <v>2919771.732410001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4004162.916040001</v>
+        <v>4006791.70557</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>5735270.70596</v>
+        <v>5747361.73472</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4128331.959169999</v>
+        <v>4162452.30647</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>8926813.774300002</v>
+        <v>9329954.571319999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>15011278.89474</v>
+        <v>15052913.61389</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>8048578.009400002</v>
+        <v>8048578.0094</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3715064.833530001</v>
+        <v>3755337.32984</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>6374259.47046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6621222.62721</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>17698012.149</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>3646246.86479</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>4080292.395579999</v>
+        <v>4080360.59149</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>4970726.618319999</v>
+        <v>4970948.693609999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>5499170.870700001</v>
+        <v>5501134.09808</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>6219697.82714</v>
+        <v>6229402.189109999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>6954270.148620001</v>
+        <v>6986937.939680001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>7358928.265980001</v>
+        <v>7649654.152570001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>8061330.80347</v>
+        <v>8093864.710320001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>8779359.85479</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9803881.465190001</v>
+        <v>9843457.516470002</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>11041154.90322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11276977.67942</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>13142710.261</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>8548.035190000001</v>
+        <v>8548.035189999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>4166.20756</v>
+        <v>4166.207560000001</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>4306.322990000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>8656.175220000001</v>
+        <v>8656.175219999999</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>16548.55904</v>
@@ -1604,130 +1590,150 @@
         <v>107674.08141</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>112844.51604</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>114312.84337</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>156929.148</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>505379.97619</v>
+        <v>505379.9761900001</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>572290.05021</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>720453.4176099999</v>
+        <v>720475.0328699999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>738492.6451400002</v>
+        <v>738800.4431</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>835593.2307000001</v>
+        <v>836231.0294999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1038037.00701</v>
+        <v>1041785.59182</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1129077.35561</v>
+        <v>1153606.77799</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1161674.38754</v>
+        <v>1162596.41656</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1466352.90545</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1500833.96908</v>
+        <v>1503303.51321</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1648102.16508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1700999.32246</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1968515.103</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>3132318.85341</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3503836.137809999</v>
+        <v>3503904.33372</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4245966.87772</v>
+        <v>4246167.33775</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>4752022.050340001</v>
+        <v>4753677.47976</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>5367556.0374</v>
+        <v>5376622.60057</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>5897075.26605</v>
+        <v>5925994.4723</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>6207184.25893</v>
+        <v>6473380.723140001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>6887131.031529999</v>
+        <v>6918742.90936</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>7297514.316649999</v>
+        <v>7297514.31665</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>8195373.414700001</v>
+        <v>8232479.92185</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>9280208.222100001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>9461665.513590001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>11017266.01</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>3200541.67863</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>23511.24941999975</v>
+        <v>23511.24341999996</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-2051766.00663</v>
+        <v>-2051176.9612</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-1495007.954660001</v>
+        <v>-1494342.39251</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-484427.12118</v>
+        <v>-482040.4543900002</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-2825938.18945</v>
+        <v>-2824485.633210001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1567885.50832</v>
+        <v>1680300.418750001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>6949948.09127</v>
+        <v>6959048.903570002</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-730781.8453899997</v>
+        <v>-730781.8453899998</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-6088816.631659999</v>
+        <v>-6088120.18663</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-4666895.43276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-4655755.05221</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4555301.888</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>2044706.67301</v>
@@ -1736,37 +1742,42 @@
         <v>1904884.44835</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2132750.75681</v>
+        <v>2132801.76801</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2598594.11288</v>
+        <v>2598680.566000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2759588.21401</v>
+        <v>2763153.6321</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3158068.97724</v>
+        <v>3166297.691619999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5631907.88259</v>
+        <v>5738794.9186</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5186877.78274</v>
+        <v>5207768.17727</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>6430606.499729999</v>
+        <v>6430606.499729998</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>14871071.13779</v>
+        <v>17282623.03893</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>10581728.21852</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>11810527.2895</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>18984785.751</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>145444.55435</v>
@@ -1784,28 +1795,33 @@
         <v>143798.36781</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>132199.89016</v>
+        <v>132202.51016</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>520323.66268</v>
+        <v>520631.1505</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>90463.59696000001</v>
+        <v>90463.6491</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>74584.58248</v>
+        <v>74584.58247999998</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>27279.93462</v>
+        <v>111975.87327</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>35472.79601000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>509956.88339</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>558037.1090000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>15045.80844</v>
@@ -1820,7 +1836,7 @@
         <v>8339.74217</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>18807.21624</v>
+        <v>18813.95862</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>26589.75661</v>
@@ -1838,16 +1854,21 @@
         <v>84709.37519000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2095084.76849</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2110177.00934</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>152045.035</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>450456.88308</v>
+        <v>450456.8830799999</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>352622.4183099999</v>
@@ -1856,34 +1877,39 @@
         <v>202073.63842</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>279802.9114099999</v>
+        <v>279820.96329</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>291714.95108</v>
+        <v>293772.34184</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>283828.87637</v>
+        <v>283876.07336</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>368373.0411</v>
+        <v>376980.0236300001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>559490.19785</v>
+        <v>560498.4449100001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>733031.06675</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>972600.0805999999</v>
+        <v>972693.8076899999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1448482.04451</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1449664.74749</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1643903.277</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>25741.86372</v>
@@ -1895,34 +1921,39 @@
         <v>22821.64226</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>26246.43308</v>
+        <v>26298.42257</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>21911.39015</v>
+        <v>21915.60611</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>23967.9744</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>18625.48221</v>
+        <v>18817.25433</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>24195.11507</v>
+        <v>24354.72189</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>27187.36488</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>46974.32736</v>
+        <v>46974.77225</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>30396.07894</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>30604.57339</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>30437.987</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>252744.27544</v>
@@ -1940,52 +1971,57 @@
         <v>24981.70551</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>22668.33082</v>
+        <v>22852.15462</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>26126.73274</v>
+        <v>26960.36903</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>76899.68991999999</v>
+        <v>76909.36331999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>27754.31715</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>865961.06594</v>
+        <v>865961.0659399998</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>46205.87855</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>46206.62626</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>62007.298</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>14018.906</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>9020.215700000001</v>
+        <v>9020.215699999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>9616.20118</v>
+        <v>9616.201180000002</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>17836.06637</v>
+        <v>17836.99208</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>23200.29583</v>
+        <v>23498.34889</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>11963.77618</v>
+        <v>11965.89457</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>19093.80417</v>
+        <v>20990.35302</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>25399.15535</v>
+        <v>25403.3973</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>18297.68267</v>
@@ -1994,52 +2030,62 @@
         <v>12553.19935</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>12689.51322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>12629.51322</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>82894.753</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>805161.49573</v>
+        <v>805161.4957300001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>897133.9145599999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1235650.11803</v>
+        <v>1235701.12923</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1164222.25144</v>
+        <v>1164236.31425</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1594622.95415</v>
+        <v>1594987.73277</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1873538.5422</v>
+        <v>1877967.29486</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3737704.07615</v>
+        <v>3823855.96504</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3148572.99209</v>
+        <v>3165510.83156</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>3832278.08071</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>11874181.28514</v>
+        <v>14200830.6775</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5677270.635280001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6394529.87201</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>14531347.142</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1413.97367</v>
@@ -2051,13 +2097,13 @@
         <v>1504.69179</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>4714.137940000001</v>
+        <v>4714.13794</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>5820.897120000001</v>
+        <v>5820.89712</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>3955.95317</v>
+        <v>3955.953169999999</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>3508.94279</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2965.15913</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>374.048</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>731.20338</v>
@@ -2087,7 +2138,7 @@
         <v>2924.16189</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>525.6664900000001</v>
+        <v>525.66649</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>672.90388</v>
@@ -2113,50 +2164,60 @@
       <c r="M34" s="48" t="n">
         <v>983.1048</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1366.456</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>333947.7092</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>361539.4728099999</v>
+        <v>361539.4728100001</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>462638.92891</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>941148.16001</v>
+        <v>941149.5832399997</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>633703.4188100001</v>
+        <v>634537.6561200001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>775349.48803</v>
+        <v>778913.6905700002</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>912739.4331199999</v>
+        <v>921638.15263</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1245140.47547</v>
+        <v>1247911.20916</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1690513.69852</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>985079.2016399999</v>
+        <v>985191.59979</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1232178.23959</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1252809.80047</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1922372.646</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1307537.98141</v>
@@ -2165,43 +2226,48 @@
         <v>1186266.85648</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1856356.22953</v>
+        <v>1856360.49499</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1623662.24081</v>
+        <v>1623727.90146</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2088142.27478</v>
+        <v>2089352.02473</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1968980.63482</v>
+        <v>1971397.11538</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4752035.98285</v>
+        <v>4823555.62745</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4240748.52407</v>
+        <v>4256349.15629</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>6955812.38841</v>
+        <v>6955812.388410001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>13229907.31841</v>
+        <v>17017705.01045</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6622064.187299999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>7960936.919140002</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>15299528.37</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>25410.02175</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>21142.47661</v>
+        <v>21142.47660999999</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>25268.52565</v>
@@ -2210,55 +2276,60 @@
         <v>24946.53404</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>22693.95814</v>
+        <v>22706.24941</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>23207.50758</v>
+        <v>23275.70297</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>19685.17069</v>
+        <v>24045.89536</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>30880.99366000001</v>
+        <v>30960.61884</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>45806.86939999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>49817.31761</v>
+        <v>49890.8243</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>54111.06859</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>54401.97794</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>44874.877</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>198571.52696</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>55053.16909999999</v>
+        <v>55053.16910000001</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>162749.07846</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>78060.96623999999</v>
+        <v>78060.96623999998</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>60680.85492000001</v>
+        <v>60695.0698</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>92386.91475999999</v>
+        <v>92782.53540000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>957783.0023500002</v>
+        <v>959996.2673399999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>271700.78292</v>
+        <v>271956.21476</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>2152234.19855</v>
@@ -2267,19 +2338,24 @@
         <v>1190387.80657</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>596357.1202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>596375.6482000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>986071.828</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1496.51618</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>2907.056880000001</v>
+        <v>2907.05688</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>3805.85328</v>
@@ -2288,13 +2364,13 @@
         <v>2884.66881</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>9382.612239999999</v>
+        <v>9382.61224</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>26851.68735</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1269.27088</v>
+        <v>1282.09239</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>2638.6903</v>
@@ -2308,53 +2384,63 @@
       <c r="M39" s="48" t="n">
         <v>5750.51865</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>22367.937</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>977133.7046899999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>986914.7008000001</v>
+        <v>986914.7008</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1512813.77775</v>
+        <v>1512818.04321</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>954646.8498099999</v>
+        <v>954703.9629999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1810651.23355</v>
+        <v>1811430.32228</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1608197.87864</v>
+        <v>1609945.4862</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3512544.36181</v>
+        <v>3576152.38844</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3662418.5362</v>
+        <v>3677596.81367</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>4462196.41353</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>11678890.29573</v>
+        <v>15456425.36045</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5638780.70965</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6962335.822639999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13550723.014</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>2491.34502</v>
+        <v>2491.345020000001</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>3074.234439999999</v>
@@ -2366,7 +2452,7 @@
         <v>5837.994199999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>9979.647849999999</v>
+        <v>9979.647850000001</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>10029.96154</v>
@@ -2375,10 +2461,10 @@
         <v>3245.25478</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>5948.47052</v>
+        <v>5948.470520000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>2598.52946</v>
+        <v>2598.529460000001</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>3385.937</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1773.25657</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>3339.836</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>245.60694</v>
@@ -2399,7 +2490,7 @@
         <v>483.77711</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>871.4828799999999</v>
+        <v>871.4828800000001</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>353.24975</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>76.63025999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>88.71899999999999</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>102189.25987</v>
@@ -2441,34 +2537,39 @@
         <v>149151.81569</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>556931.97796</v>
+        <v>556940.52542</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>174597.72471</v>
+        <v>175001.87978</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>208068.19866</v>
+        <v>208273.25563</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>257077.18671</v>
+        <v>258401.99351</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>266824.76529</v>
+        <v>266912.06302</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>279752.3635100001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>305071.1317199999</v>
+        <v>315260.25235</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>325214.88338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>340223.06488</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>692062.159</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>818495.98051</v>
@@ -2477,37 +2578,42 @@
         <v>652234.4785399999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1027287.23929</v>
+        <v>1027290.86848</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>973347.99788</v>
+        <v>973941.1470200001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1538531.19425</v>
+        <v>1545431.01331</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1371918.46439</v>
+        <v>1390383.40795</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2059221.26011</v>
+        <v>2091921.1303</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2041219.06876</v>
+        <v>2045498.13776</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2123134.5377</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3909203.23288</v>
+        <v>3937081.80807</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>5339200.425539999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5387991.23852</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>7303342.878</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>669434.042</v>
@@ -2516,37 +2622,42 @@
         <v>495032.20292</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>686053.9383100001</v>
+        <v>686057.5675</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>840327.97519</v>
+        <v>840917.2582</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1060816.24615</v>
+        <v>1067716.06521</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1120594.60652</v>
+        <v>1135152.09254</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1444272.24931</v>
+        <v>1472046.85459</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1655350.6265</v>
+        <v>1659629.6885</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1880681.66075</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2907722.85368</v>
+        <v>2935594.76416</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2943243.35704</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2990316.87792</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2907058.777</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>149061.93851</v>
@@ -2555,76 +2666,86 @@
         <v>157202.27562</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>341233.30098</v>
+        <v>341233.3009799999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>133020.02269</v>
+        <v>133023.88882</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>477714.9481</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>251323.85787</v>
+        <v>255231.31541</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>614949.0107999999</v>
+        <v>619874.2757100002</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>385868.44226</v>
+        <v>385868.44926</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>242452.87695</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1001480.3792</v>
+        <v>1001487.04391</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2395957.0685</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2397674.3606</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4396284.101</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>3119214.38972</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>89894.36274999987</v>
+        <v>89894.35675000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-2802658.718640001</v>
+        <v>-2802026.55666</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-1493424.08047</v>
+        <v>-1493330.87499</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1351512.3762</v>
+        <v>-1353669.86033</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-3008768.31142</v>
+        <v>-3019968.464920001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>388536.1479500004</v>
+        <v>503618.5795999998</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5854858.281179999</v>
+        <v>5864969.786790001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-3379122.27177</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-8356856.04516</v>
+        <v>-9760283.966220001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-6046431.82708</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-6194155.92037</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>937216.3909999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2396544.785600001</v>
@@ -2633,37 +2754,42 @@
         <v>1882667.78809</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1636100.8549</v>
+        <v>1636105.51591</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1381084.02091</v>
+        <v>1381473.17647</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3234737.68068</v>
+        <v>3237594.32954</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2370730.44087</v>
+        <v>2386284.0532</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2043263.18753</v>
+        <v>2189307.92733</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3165925.64943</v>
+        <v>3167915.7511</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>8282808.501</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>6751397.288020001</v>
+        <v>6753577.786999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2276431.56656</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2292004.0904</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3158768.451</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>133705.01798</v>
@@ -2675,34 +2801,39 @@
         <v>479891.9664</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>122331.71078</v>
+        <v>122342.5272</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>196403.90912</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>221661.54658</v>
+        <v>221672.74332</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>294665.41189</v>
+        <v>295970.66484</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>281709.03067</v>
+        <v>281711.31226</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>380012.96986</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4556063.103809999</v>
+        <v>4556063.10381</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>74889.29513</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>74920.43342</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>142736.873</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>2262839.76762</v>
@@ -2711,37 +2842,42 @@
         <v>1650412.49675</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1156208.8885</v>
+        <v>1156213.54951</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1258752.31013</v>
+        <v>1259130.64927</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3038333.77156</v>
+        <v>3041190.42042</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2149068.89429</v>
+        <v>2164611.30988</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1748597.77564</v>
+        <v>1893337.26249</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2884216.61876</v>
+        <v>2886204.438839999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>7902795.53114</v>
+        <v>7902795.531139999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2195334.18421</v>
+        <v>2197514.68319</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2201542.27143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2217083.65698</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3016031.578</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1346529.47012</v>
@@ -2750,37 +2886,42 @@
         <v>2080866.79383</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1374526.2793</v>
+        <v>1374557.64466</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>927936.58793</v>
+        <v>928256.3846700001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1108793.07653</v>
+        <v>1110781.70035</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1032790.46556</v>
+        <v>1035944.86561</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2674342.71914</v>
+        <v>2692789.012829999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2654011.88359</v>
+        <v>2656304.63698</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1316432.58166</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1583695.75975</v>
+        <v>1585644.98577</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1478326.58516</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1493609.71057</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2908245.872</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>63364.38666</v>
@@ -2789,10 +2930,10 @@
         <v>61461.00768</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>77723.0036</v>
+        <v>77723.00360000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>85923.3186</v>
+        <v>85923.31860000001</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>122456.94089</v>
@@ -2801,7 +2942,7 @@
         <v>117411.46826</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>120134.20189</v>
+        <v>121119.8212</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>145202.50979</v>
@@ -2810,16 +2951,21 @@
         <v>137591.65531</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>174034.23572</v>
+        <v>174047.99001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>218045.0211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>218278.54507</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>60777.699</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>121251.73189</v>
@@ -2828,37 +2974,42 @@
         <v>1436983.53594</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>213652.56766</v>
+        <v>213654.00916</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>190449.0674</v>
+        <v>190493.32199</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>387950.90766</v>
+        <v>388391.63439</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>199955.64579</v>
+        <v>200003.01996</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1238379.35599</v>
+        <v>1241813.35298</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>362100.17506</v>
+        <v>362102.3854499999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>195381.08709</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>99593.12904</v>
+        <v>99862.08782</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>134121.38394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>134867.81053</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>364387.708</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1161913.35157</v>
@@ -2867,76 +3018,86 @@
         <v>582422.2502100001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1083150.70804</v>
+        <v>1083180.6319</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>651564.2019300001</v>
+        <v>651839.7440800001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>598385.22798</v>
+        <v>599933.1250700001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>715423.3515100001</v>
+        <v>718530.37739</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1315829.16126</v>
+        <v>1329855.83865</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2146709.19874</v>
+        <v>2148999.74174</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>983459.83926</v>
+        <v>983459.8392600002</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1310068.39499</v>
+        <v>1311734.90794</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1126160.18012</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1140463.35497</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2483080.465</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>4169229.7052</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-108304.6429899999</v>
+        <v>-108304.6489900001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2541084.14304</v>
+        <v>-2540478.68541</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-1040276.64749</v>
+        <v>-1040114.08319</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>774432.2279500001</v>
+        <v>773142.7688600001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1670828.33611</v>
+        <v>-1669629.27733</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-242543.3836600002</v>
+        <v>137.4941000002623</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>6366772.047020001</v>
+        <v>6376580.900910001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>3587253.64757</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-3189154.516890001</v>
+        <v>-4592351.164989999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-5248326.84568</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-5395761.540539998</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1187738.97</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>119735.52977</v>
@@ -2945,73 +3106,81 @@
         <v>145314.39557</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>160952.71652</v>
+        <v>161032.67589</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>191022.33515</v>
+        <v>191142.20944</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>207436.36115</v>
+        <v>207793.49262</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>236367.31825</v>
+        <v>237103.6750200001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>282877.28297</v>
+        <v>294140.5006500001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>355996.00471</v>
+        <v>357915.8343400001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>376458.42524</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>508224.06462</v>
+        <v>509839.28585</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>669463.0294000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>691202.07209</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>909874.2560000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>4049494.17543</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-253619.0385599999</v>
+        <v>-253619.04456</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2702036.85956</v>
+        <v>-2701511.3613</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-1231298.98264</v>
+        <v>-1231256.29263</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>566995.8668</v>
+        <v>565349.2762400003</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1907195.65436</v>
+        <v>-1906732.95235</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-525420.66663</v>
+        <v>-294003.0065499996</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>6010776.042309999</v>
+        <v>6018665.066570001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3210795.222329999</v>
+        <v>3210795.22233</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-3697378.58151</v>
+        <v>-5102190.45084</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-5917789.87508</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-6086963.61263</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>277864.714</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>22448</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>24080</v>
+        <v>24081</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>24480</v>
+        <v>24489</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>23821</v>
+        <v>23850</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>22953</v>
+        <v>23010</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>22879</v>
+        <v>23000</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>22980</v>
+        <v>23322</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>23272</v>
+        <v>23368</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>24110</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>24369</v>
+        <v>25090</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>24652</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>25969</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>26884</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>